--- a/media/IDFC_TW/Billing/FEB 22/BKT_Billing_IDFC_TW.xlsx
+++ b/media/IDFC_TW/Billing/FEB 22/BKT_Billing_IDFC_TW.xlsx
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>84082.67</v>
+        <v>82126.07000000001</v>
       </c>
     </row>
   </sheetData>
